--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -231,6 +231,12 @@
     </r>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Il caso di test non è applicabile poiché il token JWT può contenere campi valorizzati in maniera errata ma comunque sempre presenti</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
@@ -294,11 +300,32 @@
     </r>
   </si>
   <si>
+    <t>11:01:00</t>
+  </si>
+  <si>
+    <t>8c463e33a4928d82</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.44cc2c90f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)</t>
+  </si>
+  <si>
+    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>11:03:00</t>
+  </si>
+  <si>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -307,9 +334,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Il software non consente che per un paziente non sia presente il codice fiscale</t>
@@ -825,7 +849,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -841,6 +865,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -931,21 +970,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -965,7 +989,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1092,37 +1116,49 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1152,22 +1188,22 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1176,19 +1212,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2766,8 +2802,12 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37"/>
+      <c r="J14" t="s" s="36">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s" s="42">
+        <v>48</v>
+      </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="37"/>
@@ -2777,7 +2817,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="39"/>
       <c r="T14" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="105.55" customHeight="1">
@@ -2791,30 +2831,50 @@
         <v>27</v>
       </c>
       <c r="D15" t="s" s="31">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="37"/>
+        <v>51</v>
+      </c>
+      <c r="F15" s="33">
+        <v>44991</v>
+      </c>
+      <c r="G15" t="s" s="35">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s" s="35">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s" s="35">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s" s="36">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s" s="44">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s" s="45">
+        <v>56</v>
+      </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="36"/>
       <c r="S15" s="39"/>
       <c r="T15" t="s" s="40">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" ht="40.55" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="43" customHeight="1">
       <c r="A16" s="30">
         <v>45</v>
       </c>
@@ -2825,29 +2885,37 @@
         <v>27</v>
       </c>
       <c r="D16" t="s" s="31">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s" s="32">
-        <v>51</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+        <v>58</v>
+      </c>
+      <c r="F16" s="46">
+        <v>44991</v>
+      </c>
+      <c r="G16" t="s" s="35">
+        <v>59</v>
+      </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="38"/>
+      <c r="J16" t="s" s="36">
+        <v>32</v>
+      </c>
       <c r="K16" s="37"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="37"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="38"/>
-      <c r="P16" s="37"/>
+      <c r="P16" t="s" s="42">
+        <v>60</v>
+      </c>
       <c r="Q16" s="38"/>
       <c r="R16" t="s" s="36">
         <v>32</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="105.55" customHeight="1">
@@ -2861,31 +2929,31 @@
         <v>27</v>
       </c>
       <c r="D17" t="s" s="31">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s" s="32">
-        <v>53</v>
-      </c>
-      <c r="F17" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="F17" s="47"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="36">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L17" s="36"/>
       <c r="M17" s="38"/>
       <c r="N17" s="37"/>
       <c r="O17" s="38"/>
-      <c r="P17" s="37"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="36"/>
       <c r="S17" s="39"/>
       <c r="T17" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="105.55" customHeight="1">
@@ -2899,10 +2967,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s" s="31">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s" s="32">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F18" s="33">
         <v>44984</v>
@@ -2911,10 +2979,10 @@
         <v>1677484800</v>
       </c>
       <c r="H18" t="s" s="35">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s" s="35">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s" s="36">
         <v>32</v>
@@ -2927,19 +2995,19 @@
         <v>32</v>
       </c>
       <c r="N18" t="s" s="36">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O18" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s" s="36">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="36"/>
       <c r="S18" s="39"/>
       <c r="T18" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="144.55" customHeight="1">
@@ -2953,10 +3021,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s" s="31">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s" s="32">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F19" s="33">
         <v>44984</v>
@@ -2965,10 +3033,10 @@
         <v>1677485160</v>
       </c>
       <c r="H19" t="s" s="35">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="35">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="36">
         <v>32</v>
@@ -2981,19 +3049,19 @@
         <v>32</v>
       </c>
       <c r="N19" t="s" s="36">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s" s="36">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="38"/>
       <c r="R19" s="36"/>
       <c r="S19" s="39"/>
       <c r="T19" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="131.55" customHeight="1">
@@ -3007,10 +3075,10 @@
         <v>27</v>
       </c>
       <c r="D20" t="s" s="31">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s" s="32">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F20" s="33">
         <v>44984</v>
@@ -3019,10 +3087,10 @@
         <v>1677485340</v>
       </c>
       <c r="H20" t="s" s="35">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="35">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="36">
         <v>32</v>
@@ -3035,19 +3103,19 @@
         <v>32</v>
       </c>
       <c r="N20" t="s" s="36">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P20" t="s" s="36">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="36"/>
       <c r="S20" s="39"/>
       <c r="T20" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="118.55" customHeight="1">
@@ -3061,10 +3129,10 @@
         <v>27</v>
       </c>
       <c r="D21" t="s" s="31">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s" s="32">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F21" s="33">
         <v>44984</v>
@@ -3073,10 +3141,10 @@
         <v>1677485520</v>
       </c>
       <c r="H21" t="s" s="35">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="35">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="36">
         <v>32</v>
@@ -3089,19 +3157,19 @@
         <v>32</v>
       </c>
       <c r="N21" t="s" s="36">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O21" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s" s="36">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="36"/>
       <c r="S21" s="39"/>
       <c r="T21" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="105.55" customHeight="1">
@@ -3115,10 +3183,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s" s="31">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s" s="32">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F22" s="33">
         <v>44984</v>
@@ -3127,10 +3195,10 @@
         <v>1677486000</v>
       </c>
       <c r="H22" t="s" s="35">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s" s="35">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="36">
         <v>32</v>
@@ -3143,19 +3211,19 @@
         <v>32</v>
       </c>
       <c r="N22" t="s" s="36">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="O22" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s" s="36">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="36"/>
       <c r="S22" s="39"/>
       <c r="T22" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="157.55" customHeight="1">
@@ -3169,10 +3237,10 @@
         <v>27</v>
       </c>
       <c r="D23" t="s" s="31">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s" s="32">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F23" s="33">
         <v>44984</v>
@@ -3181,10 +3249,10 @@
         <v>1677486180</v>
       </c>
       <c r="H23" t="s" s="35">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s" s="35">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s" s="36">
         <v>32</v>
@@ -3197,19 +3265,19 @@
         <v>32</v>
       </c>
       <c r="N23" t="s" s="36">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O23" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s" s="36">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="36"/>
       <c r="S23" s="39"/>
       <c r="T23" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="131.55" customHeight="1">
@@ -3223,10 +3291,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s" s="31">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s" s="32">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F24" s="33">
         <v>44984</v>
@@ -3235,10 +3303,10 @@
         <v>1677486300</v>
       </c>
       <c r="H24" t="s" s="35">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s" s="35">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s" s="36">
         <v>32</v>
@@ -3251,19 +3319,19 @@
         <v>32</v>
       </c>
       <c r="N24" t="s" s="36">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O24" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s" s="36">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="38"/>
       <c r="R24" s="36"/>
       <c r="S24" s="39"/>
       <c r="T24" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="131.55" customHeight="1">
@@ -3277,22 +3345,22 @@
         <v>27</v>
       </c>
       <c r="D25" t="s" s="31">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s" s="32">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F25" s="33">
         <v>44984</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="48">
         <v>1677504360</v>
       </c>
       <c r="H25" t="s" s="35">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s" s="35">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s" s="36">
         <v>32</v>
@@ -3305,19 +3373,19 @@
         <v>32</v>
       </c>
       <c r="N25" t="s" s="36">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O25" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P25" t="s" s="36">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="38"/>
       <c r="R25" s="36"/>
       <c r="S25" s="39"/>
       <c r="T25" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="183.55" customHeight="1">
@@ -3331,10 +3399,10 @@
         <v>27</v>
       </c>
       <c r="D26" t="s" s="31">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s" s="32">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F26" s="33">
         <v>44984</v>
@@ -3343,10 +3411,10 @@
         <v>1677504600</v>
       </c>
       <c r="H26" t="s" s="35">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s" s="35">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s" s="36">
         <v>32</v>
@@ -3359,19 +3427,19 @@
         <v>32</v>
       </c>
       <c r="N26" t="s" s="36">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O26" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s" s="36">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="38"/>
       <c r="R26" s="36"/>
       <c r="S26" s="39"/>
       <c r="T26" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="105.55" customHeight="1">
@@ -3385,20 +3453,20 @@
         <v>27</v>
       </c>
       <c r="D27" t="s" s="31">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s" s="32">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" t="s" s="36">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="36">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
@@ -3409,45 +3477,45 @@
       <c r="R27" s="36"/>
       <c r="S27" s="39"/>
       <c r="T27" t="s" s="40">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="105.05" customHeight="1">
-      <c r="A28" s="43">
+      <c r="A28" s="49">
         <v>74</v>
       </c>
-      <c r="B28" t="s" s="44">
+      <c r="B28" t="s" s="50">
         <v>26</v>
       </c>
-      <c r="C28" t="s" s="44">
+      <c r="C28" t="s" s="50">
         <v>27</v>
       </c>
-      <c r="D28" t="s" s="44">
-        <v>113</v>
-      </c>
-      <c r="E28" t="s" s="45">
-        <v>114</v>
+      <c r="D28" t="s" s="50">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s" s="51">
+        <v>122</v>
       </c>
       <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
-      <c r="J28" t="s" s="48">
-        <v>54</v>
-      </c>
-      <c r="K28" t="s" s="48">
-        <v>115</v>
-      </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="51"/>
-      <c r="T28" t="s" s="52">
+      <c r="J28" t="s" s="44">
         <v>47</v>
+      </c>
+      <c r="K28" t="s" s="44">
+        <v>123</v>
+      </c>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="55"/>
+      <c r="T28" t="s" s="56">
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3456,21 +3524,21 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="54"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="58"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" s="3"/>
@@ -22076,123 +22144,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="58" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="58" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="58" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="58" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="58" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="58" customWidth="1"/>
+    <col min="1" max="1" width="16" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="62" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="62" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="59">
+      <c r="A1" t="s" s="63">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="60">
+      <c r="B1" t="s" s="64">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="60">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s" s="61">
-        <v>117</v>
-      </c>
-      <c r="E1" s="62"/>
+      <c r="C1" t="s" s="64">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s" s="65">
+        <v>125</v>
+      </c>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="63">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s" s="64">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s" s="65">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s" s="66">
-        <v>121</v>
-      </c>
-      <c r="E2" s="62"/>
+      <c r="A2" t="s" s="67">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s" s="68">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s" s="69">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s" s="70">
+        <v>129</v>
+      </c>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="67">
+      <c r="A3" t="s" s="71">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="68">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s" s="69">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s" s="70">
-        <v>123</v>
-      </c>
-      <c r="E3" s="62"/>
+      <c r="B3" t="s" s="72">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s" s="73">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s" s="74">
+        <v>131</v>
+      </c>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="67">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s" s="68">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s" s="69">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s" s="71">
-        <v>126</v>
-      </c>
-      <c r="E4" s="62"/>
+      <c r="A4" t="s" s="71">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s" s="72">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s" s="73">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s" s="75">
+        <v>134</v>
+      </c>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="67">
+      <c r="A5" t="s" s="71">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s" s="72">
         <v>127</v>
       </c>
-      <c r="B5" t="s" s="68">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s" s="69">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s" s="70">
-        <v>129</v>
-      </c>
-      <c r="E5" s="62"/>
+      <c r="C5" t="s" s="73">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s" s="74">
+        <v>137</v>
+      </c>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="67">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s" s="68">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s" s="69">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s" s="71">
-        <v>132</v>
-      </c>
-      <c r="E6" s="62"/>
+      <c r="A6" t="s" s="71">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s" s="72">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s" s="73">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s" s="75">
+        <v>140</v>
+      </c>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="72">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s" s="73">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s" s="74">
-        <v>134</v>
-      </c>
-      <c r="D7" t="s" s="71">
-        <v>135</v>
-      </c>
-      <c r="E7" s="62"/>
+      <c r="A7" t="s" s="76">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s" s="77">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s" s="78">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s" s="75">
+        <v>143</v>
+      </c>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -129,10 +129,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>d1983a0e5843491b</t>
+    <t>e045aff956bce175</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.99b8d05aa6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.07719f376c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -149,10 +149,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e66180cf46503379</t>
+    <t>523c159d780d6fd0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.f0d4e2ae4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.5673712add^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -163,10 +163,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>f6b4be07be0a3595</t>
+    <t>a732d13a42cfe45d</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.536ae164ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.e0608032f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -177,7 +177,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.fa01a9d4fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b1edc3a30d340552</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.2041f6fb1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -2623,10 +2626,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="33">
-        <v>44986</v>
+        <v>45005</v>
       </c>
       <c r="G10" s="34">
-        <v>1677505200</v>
+        <v>1679299654</v>
       </c>
       <c r="H10" t="s" s="35">
         <v>30</v>
@@ -2667,10 +2670,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="33">
-        <v>44986</v>
+        <v>45005</v>
       </c>
       <c r="G11" s="34">
-        <v>1677668064</v>
+        <v>1679301656</v>
       </c>
       <c r="H11" t="s" s="35">
         <v>36</v>
@@ -2711,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="F12" s="33">
-        <v>44986</v>
+        <v>45005</v>
       </c>
       <c r="G12" s="34">
-        <v>1677669760</v>
+        <v>1679302308</v>
       </c>
       <c r="H12" t="s" s="35">
         <v>40</v>
@@ -2755,16 +2758,16 @@
         <v>43</v>
       </c>
       <c r="F13" s="33">
-        <v>44986</v>
+        <v>45007</v>
       </c>
       <c r="G13" s="34">
-        <v>1677670068</v>
-      </c>
-      <c r="H13" s="34">
-        <v>6709506444487090</v>
+        <v>1679483150</v>
+      </c>
+      <c r="H13" t="s" s="35">
+        <v>44</v>
       </c>
       <c r="I13" t="s" s="35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s" s="36">
         <v>32</v>
@@ -2793,20 +2796,20 @@
         <v>27</v>
       </c>
       <c r="D14" t="s" s="31">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s" s="41">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="42">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -2817,7 +2820,7 @@
       <c r="R14" s="36"/>
       <c r="S14" s="39"/>
       <c r="T14" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="105.55" customHeight="1">
@@ -2831,22 +2834,22 @@
         <v>27</v>
       </c>
       <c r="D15" t="s" s="31">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s" s="41">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="33">
         <v>44991</v>
       </c>
       <c r="G15" t="s" s="35">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s" s="35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s" s="35">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s" s="36">
         <v>32</v>
@@ -2856,22 +2859,22 @@
         <v>32</v>
       </c>
       <c r="M15" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N15" t="s" s="44">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O15" t="s" s="36">
         <v>32</v>
       </c>
       <c r="P15" t="s" s="45">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="36"/>
       <c r="S15" s="39"/>
       <c r="T15" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="43" customHeight="1">
@@ -2885,16 +2888,16 @@
         <v>27</v>
       </c>
       <c r="D16" t="s" s="31">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s" s="32">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="46">
         <v>44991</v>
       </c>
       <c r="G16" t="s" s="35">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
@@ -2907,7 +2910,7 @@
       <c r="N16" s="43"/>
       <c r="O16" s="38"/>
       <c r="P16" t="s" s="42">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="38"/>
       <c r="R16" t="s" s="36">
@@ -2915,7 +2918,7 @@
       </c>
       <c r="S16" s="39"/>
       <c r="T16" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="105.55" customHeight="1">
@@ -2929,20 +2932,20 @@
         <v>27</v>
       </c>
       <c r="D17" t="s" s="31">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s" s="32">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="36">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" s="36"/>
       <c r="M17" s="38"/>
@@ -2953,7 +2956,7 @@
       <c r="R17" s="36"/>
       <c r="S17" s="39"/>
       <c r="T17" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="105.55" customHeight="1">
@@ -2967,10 +2970,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s" s="31">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s" s="32">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="33">
         <v>44984</v>
@@ -2979,10 +2982,10 @@
         <v>1677484800</v>
       </c>
       <c r="H18" t="s" s="35">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s" s="35">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s" s="36">
         <v>32</v>
@@ -2995,19 +2998,19 @@
         <v>32</v>
       </c>
       <c r="N18" t="s" s="36">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O18" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s" s="36">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="36"/>
       <c r="S18" s="39"/>
       <c r="T18" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="144.55" customHeight="1">
@@ -3021,10 +3024,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s" s="31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s" s="32">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="33">
         <v>44984</v>
@@ -3033,10 +3036,10 @@
         <v>1677485160</v>
       </c>
       <c r="H19" t="s" s="35">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="35">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="36">
         <v>32</v>
@@ -3049,19 +3052,19 @@
         <v>32</v>
       </c>
       <c r="N19" t="s" s="36">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O19" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s" s="36">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="38"/>
       <c r="R19" s="36"/>
       <c r="S19" s="39"/>
       <c r="T19" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="131.55" customHeight="1">
@@ -3075,10 +3078,10 @@
         <v>27</v>
       </c>
       <c r="D20" t="s" s="31">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s" s="32">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="33">
         <v>44984</v>
@@ -3087,10 +3090,10 @@
         <v>1677485340</v>
       </c>
       <c r="H20" t="s" s="35">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="35">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="36">
         <v>32</v>
@@ -3103,19 +3106,19 @@
         <v>32</v>
       </c>
       <c r="N20" t="s" s="36">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P20" t="s" s="36">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="36"/>
       <c r="S20" s="39"/>
       <c r="T20" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="118.55" customHeight="1">
@@ -3129,10 +3132,10 @@
         <v>27</v>
       </c>
       <c r="D21" t="s" s="31">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s" s="32">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="33">
         <v>44984</v>
@@ -3141,10 +3144,10 @@
         <v>1677485520</v>
       </c>
       <c r="H21" t="s" s="35">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s" s="35">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="36">
         <v>32</v>
@@ -3157,19 +3160,19 @@
         <v>32</v>
       </c>
       <c r="N21" t="s" s="36">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O21" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s" s="36">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="36"/>
       <c r="S21" s="39"/>
       <c r="T21" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="105.55" customHeight="1">
@@ -3183,10 +3186,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s" s="31">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s" s="32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="33">
         <v>44984</v>
@@ -3195,10 +3198,10 @@
         <v>1677486000</v>
       </c>
       <c r="H22" t="s" s="35">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="35">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="36">
         <v>32</v>
@@ -3211,19 +3214,19 @@
         <v>32</v>
       </c>
       <c r="N22" t="s" s="36">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s" s="36">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="36"/>
       <c r="S22" s="39"/>
       <c r="T22" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="157.55" customHeight="1">
@@ -3237,10 +3240,10 @@
         <v>27</v>
       </c>
       <c r="D23" t="s" s="31">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s" s="32">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" s="33">
         <v>44984</v>
@@ -3249,10 +3252,10 @@
         <v>1677486180</v>
       </c>
       <c r="H23" t="s" s="35">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s" s="35">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s" s="36">
         <v>32</v>
@@ -3265,19 +3268,19 @@
         <v>32</v>
       </c>
       <c r="N23" t="s" s="36">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s" s="36">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="36"/>
       <c r="S23" s="39"/>
       <c r="T23" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="131.55" customHeight="1">
@@ -3291,10 +3294,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s" s="31">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s" s="32">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="33">
         <v>44984</v>
@@ -3303,10 +3306,10 @@
         <v>1677486300</v>
       </c>
       <c r="H24" t="s" s="35">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s" s="35">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J24" t="s" s="36">
         <v>32</v>
@@ -3319,19 +3322,19 @@
         <v>32</v>
       </c>
       <c r="N24" t="s" s="36">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O24" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s" s="36">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="38"/>
       <c r="R24" s="36"/>
       <c r="S24" s="39"/>
       <c r="T24" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="131.55" customHeight="1">
@@ -3345,10 +3348,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s" s="31">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s" s="32">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="33">
         <v>44984</v>
@@ -3357,10 +3360,10 @@
         <v>1677504360</v>
       </c>
       <c r="H25" t="s" s="35">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s" s="35">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s" s="36">
         <v>32</v>
@@ -3373,19 +3376,19 @@
         <v>32</v>
       </c>
       <c r="N25" t="s" s="36">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O25" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s" s="36">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="38"/>
       <c r="R25" s="36"/>
       <c r="S25" s="39"/>
       <c r="T25" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="183.55" customHeight="1">
@@ -3399,10 +3402,10 @@
         <v>27</v>
       </c>
       <c r="D26" t="s" s="31">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s" s="32">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="33">
         <v>44984</v>
@@ -3411,10 +3414,10 @@
         <v>1677504600</v>
       </c>
       <c r="H26" t="s" s="35">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s" s="35">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s" s="36">
         <v>32</v>
@@ -3427,19 +3430,19 @@
         <v>32</v>
       </c>
       <c r="N26" t="s" s="36">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s" s="36">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="38"/>
       <c r="R26" s="36"/>
       <c r="S26" s="39"/>
       <c r="T26" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="105.55" customHeight="1">
@@ -3453,20 +3456,20 @@
         <v>27</v>
       </c>
       <c r="D27" t="s" s="31">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s" s="32">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" t="s" s="36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="36">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
@@ -3477,7 +3480,7 @@
       <c r="R27" s="36"/>
       <c r="S27" s="39"/>
       <c r="T27" t="s" s="40">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="105.05" customHeight="1">
@@ -3491,20 +3494,20 @@
         <v>27</v>
       </c>
       <c r="D28" t="s" s="50">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s" s="51">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F28" s="46"/>
       <c r="G28" s="52"/>
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" t="s" s="44">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="44">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
@@ -3515,7 +3518,7 @@
       <c r="R28" s="44"/>
       <c r="S28" s="55"/>
       <c r="T28" t="s" s="56">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -22160,25 +22163,25 @@
         <v>7</v>
       </c>
       <c r="C1" t="s" s="64">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s" s="65">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="66"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="67">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="68">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s" s="69">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s" s="70">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="66"/>
     </row>
@@ -22187,73 +22190,73 @@
         <v>27</v>
       </c>
       <c r="B3" t="s" s="72">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s" s="73">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s" s="74">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="66"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s" s="71">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s" s="72">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s" s="73">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s" s="75">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="66"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="71">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s" s="72">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s" s="73">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s" s="74">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5" s="66"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="71">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s" s="72">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s" s="73">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s" s="75">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="66"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s" s="76">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s" s="77">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s" s="78">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s" s="75">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E7" s="66"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -52,7 +52,7 @@
     <t>subject_application_vendor: GESAN SRL</t>
   </si>
   <si>
-    <t>subject_application_version: v.2.0</t>
+    <t>subject_application_version: V.2.0</t>
   </si>
   <si>
     <t>ID</t>
@@ -129,10 +129,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e045aff956bce175</t>
+    <t>63de9e29674fcffb</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.07719f376c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.f5cf37717d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -149,10 +149,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>523c159d780d6fd0</t>
+    <t>4037fec3c4107ef7</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.5673712add^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.df710ec06f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -163,10 +163,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>a732d13a42cfe45d</t>
+    <t>ece81a3b0b395717</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.e0608032f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.5dfa4514e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -177,10 +177,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>b1edc3a30d340552</t>
+    <t>e2d5bdec1391802c</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.2041f6fb1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.b810e36e1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -303,13 +303,13 @@
     </r>
   </si>
   <si>
-    <t>11:01:00</t>
+    <t>11:59:00</t>
   </si>
   <si>
-    <t>8c463e33a4928d82</t>
+    <t>bb69426c3015b737</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.44cc2c90f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.0689d1ea86^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)</t>
@@ -350,10 +350,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>9e70c80ad9e2834d</t>
+    <t>7897782f5b2d57ca</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.99a3640ff4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.8429adb4c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico.[Errore-47| codice fiscale '' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
@@ -370,10 +370,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>451dc4b5696825ad</t>
+    <t>9c8de420b83b5b38</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.14b3e28240^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.52f68861f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico. [ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
@@ -390,10 +390,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>23f693872bf8be6f</t>
+    <t>0c1e6069535dc67a</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.653797668f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.d193dd6fbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico . [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
@@ -410,10 +410,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>670cf5fbec5f79cc</t>
+    <t>9fef5168f21020f7</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.89c750aa48^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.29d87765c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico. [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
@@ -430,10 +430,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>3512e09548c4c873</t>
+    <t>7a1ffe9aac03863f</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.fb39283d8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.bd6064c0d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: G]</t>
@@ -450,10 +450,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>1fb6ab7d866af2b4</t>
+    <t>e4f3cbc20889c3e2</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.b18d4a1e3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.91d22d0c4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico. [ERRORE-b5| Sezione Condizioni del paziente e diagnosi alla dimissione: la sezione DEVE essere presente],[ERRORE-b6| Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione DEVE contenere l'elemento 'text'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
@@ -471,10 +471,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>3b5d98bb72e2a2f0</t>
+    <t>1583b241a9c647b2</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.ca8ff9dcb0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.17a9c8936d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico. [ERRORE-b3| Sezione Decorso Ospedaliero: la sezione DEVE essere presente],[ERRORE-b4| Sezione Decorso Ospedaliero: La sezione deve contenere l'elemento 'text'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
@@ -492,10 +492,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>e2f04779b31c4990</t>
+    <t>d3f67b8a79e444eb</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.37a211a4f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.97c62839c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico. [W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ],[ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
@@ -512,10 +512,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>61b7330185409ce1</t>
+    <t>a8e976281f1edd33</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.e83c307003^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.35a5b3ae06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico. [W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ],[ERRORE-b25| Sotto-sezione Anamnesi: l'elemento entry/observation/statusCode deve avere l'attributo @code='completed'],[ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
@@ -992,7 +992,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1095,7 +1095,7 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1116,8 +1116,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1131,13 +1143,10 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="21" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2626,10 +2635,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="33">
-        <v>45005</v>
+        <v>45013</v>
       </c>
       <c r="G10" s="34">
-        <v>1679299654</v>
+        <v>45013.489583333336</v>
       </c>
       <c r="H10" t="s" s="35">
         <v>30</v>
@@ -2670,10 +2679,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="33">
-        <v>45005</v>
+        <v>45013</v>
       </c>
       <c r="G11" s="34">
-        <v>1679301656</v>
+        <v>45013.490277777775</v>
       </c>
       <c r="H11" t="s" s="35">
         <v>36</v>
@@ -2714,10 +2723,10 @@
         <v>39</v>
       </c>
       <c r="F12" s="33">
-        <v>45005</v>
+        <v>45013</v>
       </c>
       <c r="G12" s="34">
-        <v>1679302308</v>
+        <v>45013.490972222222</v>
       </c>
       <c r="H12" t="s" s="35">
         <v>40</v>
@@ -2757,16 +2766,16 @@
       <c r="E13" t="s" s="32">
         <v>43</v>
       </c>
-      <c r="F13" s="33">
-        <v>45007</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1679483150</v>
-      </c>
-      <c r="H13" t="s" s="35">
+      <c r="F13" s="41">
+        <v>45013</v>
+      </c>
+      <c r="G13" s="42">
+        <v>45013.491666666669</v>
+      </c>
+      <c r="H13" t="s" s="43">
         <v>44</v>
       </c>
-      <c r="I13" t="s" s="35">
+      <c r="I13" t="s" s="43">
         <v>45</v>
       </c>
       <c r="J13" t="s" s="36">
@@ -2798,17 +2807,17 @@
       <c r="D14" t="s" s="31">
         <v>46</v>
       </c>
-      <c r="E14" t="s" s="41">
+      <c r="E14" t="s" s="44">
         <v>47</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" t="s" s="36">
         <v>48</v>
       </c>
-      <c r="K14" t="s" s="42">
+      <c r="K14" t="s" s="46">
         <v>49</v>
       </c>
       <c r="L14" s="38"/>
@@ -2836,38 +2845,38 @@
       <c r="D15" t="s" s="31">
         <v>51</v>
       </c>
-      <c r="E15" t="s" s="41">
+      <c r="E15" t="s" s="44">
         <v>52</v>
       </c>
       <c r="F15" s="33">
-        <v>44991</v>
+        <v>45013</v>
       </c>
       <c r="G15" t="s" s="35">
         <v>53</v>
       </c>
-      <c r="H15" t="s" s="35">
+      <c r="H15" t="s" s="43">
         <v>54</v>
       </c>
-      <c r="I15" t="s" s="35">
+      <c r="I15" t="s" s="43">
         <v>55</v>
       </c>
       <c r="J15" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="47"/>
       <c r="L15" t="s" s="36">
         <v>32</v>
       </c>
       <c r="M15" t="s" s="36">
         <v>48</v>
       </c>
-      <c r="N15" t="s" s="44">
+      <c r="N15" t="s" s="48">
         <v>56</v>
       </c>
       <c r="O15" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="P15" t="s" s="45">
+      <c r="P15" t="s" s="49">
         <v>57</v>
       </c>
       <c r="Q15" s="38"/>
@@ -2893,23 +2902,23 @@
       <c r="E16" t="s" s="32">
         <v>59</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="41">
         <v>44991</v>
       </c>
       <c r="G16" t="s" s="35">
         <v>60</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" t="s" s="36">
         <v>32</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="43"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="38"/>
-      <c r="P16" t="s" s="42">
+      <c r="P16" t="s" s="46">
         <v>61</v>
       </c>
       <c r="Q16" s="38"/>
@@ -2937,7 +2946,7 @@
       <c r="E17" t="s" s="32">
         <v>63</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
@@ -2951,7 +2960,7 @@
       <c r="M17" s="38"/>
       <c r="N17" s="37"/>
       <c r="O17" s="38"/>
-      <c r="P17" s="43"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="36"/>
       <c r="S17" s="39"/>
@@ -2976,10 +2985,10 @@
         <v>66</v>
       </c>
       <c r="F18" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G18" s="34">
-        <v>1677484800</v>
+        <v>45013.49375</v>
       </c>
       <c r="H18" t="s" s="35">
         <v>67</v>
@@ -3030,10 +3039,10 @@
         <v>72</v>
       </c>
       <c r="F19" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G19" s="34">
-        <v>1677485160</v>
+        <v>45013.495138888888</v>
       </c>
       <c r="H19" t="s" s="35">
         <v>73</v>
@@ -3084,10 +3093,10 @@
         <v>78</v>
       </c>
       <c r="F20" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G20" s="34">
-        <v>1677485340</v>
+        <v>45013.495833333334</v>
       </c>
       <c r="H20" t="s" s="35">
         <v>79</v>
@@ -3138,10 +3147,10 @@
         <v>84</v>
       </c>
       <c r="F21" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G21" s="34">
-        <v>1677485520</v>
+        <v>45013.495833333334</v>
       </c>
       <c r="H21" t="s" s="35">
         <v>85</v>
@@ -3192,10 +3201,10 @@
         <v>90</v>
       </c>
       <c r="F22" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G22" s="34">
-        <v>1677486000</v>
+        <v>45013.496527777781</v>
       </c>
       <c r="H22" t="s" s="35">
         <v>91</v>
@@ -3246,10 +3255,10 @@
         <v>96</v>
       </c>
       <c r="F23" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G23" s="34">
-        <v>1677486180</v>
+        <v>45013.497222222220</v>
       </c>
       <c r="H23" t="s" s="35">
         <v>97</v>
@@ -3300,10 +3309,10 @@
         <v>102</v>
       </c>
       <c r="F24" s="33">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="G24" s="34">
-        <v>1677486300</v>
+        <v>45013.497222222220</v>
       </c>
       <c r="H24" t="s" s="35">
         <v>103</v>
@@ -3354,10 +3363,10 @@
         <v>108</v>
       </c>
       <c r="F25" s="33">
-        <v>44984</v>
-      </c>
-      <c r="G25" s="48">
-        <v>1677504360</v>
+        <v>45013</v>
+      </c>
+      <c r="G25" s="50">
+        <v>45013.497916666667</v>
       </c>
       <c r="H25" t="s" s="35">
         <v>109</v>
@@ -3407,16 +3416,16 @@
       <c r="E26" t="s" s="32">
         <v>114</v>
       </c>
-      <c r="F26" s="33">
-        <v>44984</v>
+      <c r="F26" s="41">
+        <v>45013</v>
       </c>
       <c r="G26" s="34">
-        <v>1677504600</v>
-      </c>
-      <c r="H26" t="s" s="35">
+        <v>45013.498611111114</v>
+      </c>
+      <c r="H26" t="s" s="43">
         <v>115</v>
       </c>
-      <c r="I26" t="s" s="35">
+      <c r="I26" t="s" s="43">
         <v>116</v>
       </c>
       <c r="J26" t="s" s="36">
@@ -3461,10 +3470,10 @@
       <c r="E27" t="s" s="32">
         <v>120</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
       <c r="J27" t="s" s="36">
         <v>48</v>
       </c>
@@ -3484,40 +3493,40 @@
       </c>
     </row>
     <row r="28" ht="105.05" customHeight="1">
-      <c r="A28" s="49">
+      <c r="A28" s="52">
         <v>74</v>
       </c>
-      <c r="B28" t="s" s="50">
+      <c r="B28" t="s" s="53">
         <v>26</v>
       </c>
-      <c r="C28" t="s" s="50">
+      <c r="C28" t="s" s="53">
         <v>27</v>
       </c>
-      <c r="D28" t="s" s="50">
+      <c r="D28" t="s" s="53">
         <v>122</v>
       </c>
-      <c r="E28" t="s" s="51">
+      <c r="E28" t="s" s="54">
         <v>123</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" t="s" s="44">
+      <c r="F28" s="41"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" t="s" s="48">
         <v>48</v>
       </c>
-      <c r="K28" t="s" s="44">
+      <c r="K28" t="s" s="48">
         <v>124</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="55"/>
-      <c r="T28" t="s" s="56">
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="58"/>
+      <c r="T28" t="s" s="59">
         <v>50</v>
       </c>
     </row>
@@ -3527,21 +3536,21 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="58"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" s="3"/>
@@ -22147,123 +22156,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="62" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="62" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="62" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="62" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="62" customWidth="1"/>
+    <col min="1" max="1" width="16" style="65" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="65" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="65" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="65" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="65" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="63">
+      <c r="A1" t="s" s="66">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="64">
+      <c r="B1" t="s" s="67">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="64">
+      <c r="C1" t="s" s="67">
         <v>125</v>
       </c>
-      <c r="D1" t="s" s="65">
+      <c r="D1" t="s" s="68">
         <v>126</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="67">
+      <c r="A2" t="s" s="70">
         <v>127</v>
       </c>
-      <c r="B2" t="s" s="68">
+      <c r="B2" t="s" s="71">
         <v>128</v>
       </c>
-      <c r="C2" t="s" s="69">
+      <c r="C2" t="s" s="72">
         <v>129</v>
       </c>
-      <c r="D2" t="s" s="70">
+      <c r="D2" t="s" s="73">
         <v>130</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="71">
+      <c r="A3" t="s" s="74">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="72">
+      <c r="B3" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C3" t="s" s="73">
+      <c r="C3" t="s" s="76">
         <v>131</v>
       </c>
-      <c r="D3" t="s" s="74">
+      <c r="D3" t="s" s="77">
         <v>132</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="71">
+      <c r="A4" t="s" s="74">
         <v>133</v>
       </c>
-      <c r="B4" t="s" s="72">
+      <c r="B4" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C4" t="s" s="73">
+      <c r="C4" t="s" s="76">
         <v>134</v>
       </c>
-      <c r="D4" t="s" s="75">
+      <c r="D4" t="s" s="78">
         <v>135</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="71">
+      <c r="A5" t="s" s="74">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="72">
+      <c r="B5" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C5" t="s" s="73">
+      <c r="C5" t="s" s="76">
         <v>137</v>
       </c>
-      <c r="D5" t="s" s="74">
+      <c r="D5" t="s" s="77">
         <v>138</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="71">
+      <c r="A6" t="s" s="74">
         <v>139</v>
       </c>
-      <c r="B6" t="s" s="72">
+      <c r="B6" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C6" t="s" s="73">
+      <c r="C6" t="s" s="76">
         <v>140</v>
       </c>
-      <c r="D6" t="s" s="75">
+      <c r="D6" t="s" s="78">
         <v>141</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="76">
+      <c r="A7" t="s" s="79">
         <v>142</v>
       </c>
-      <c r="B7" t="s" s="77">
+      <c r="B7" t="s" s="80">
         <v>128</v>
       </c>
-      <c r="C7" t="s" s="78">
+      <c r="C7" t="s" s="81">
         <v>143</v>
       </c>
-      <c r="D7" t="s" s="75">
+      <c r="D7" t="s" s="78">
         <v>144</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -129,10 +129,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>63de9e29674fcffb</t>
+    <t>805f5f57b1ad6078</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.f5cf37717d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.8af9477e2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -149,10 +149,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>4037fec3c4107ef7</t>
+    <t>d06de30760be9db9</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.df710ec06f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.a56c90b51a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -163,10 +163,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>ece81a3b0b395717</t>
+    <t>6e6b2c2feffdb219</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.5dfa4514e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.456cea59c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -177,10 +177,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e2d5bdec1391802c</t>
+    <t>c23fe795b89460d8</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.b810e36e1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.2e7d61172b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -992,7 +992,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1095,7 +1095,7 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1119,7 +1119,7 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1143,10 +1143,10 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="21" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="21" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1157,9 +1157,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2349,7 +2346,7 @@
     <col min="2" max="2" width="15.1719" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="104.672" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3047" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.8516" style="1" customWidth="1"/>
@@ -2618,7 +2615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="118.55" customHeight="1">
+    <row r="10" ht="365.55" customHeight="1">
       <c r="A10" s="30">
         <v>6</v>
       </c>
@@ -2635,10 +2632,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="33">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="G10" s="34">
-        <v>45013.489583333336</v>
+        <v>1680078272</v>
       </c>
       <c r="H10" t="s" s="35">
         <v>30</v>
@@ -2662,7 +2659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="118.55" customHeight="1">
+    <row r="11" ht="365.55" customHeight="1">
       <c r="A11" s="30">
         <v>7</v>
       </c>
@@ -2679,10 +2676,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="33">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="G11" s="34">
-        <v>45013.490277777775</v>
+        <v>1680078995</v>
       </c>
       <c r="H11" t="s" s="35">
         <v>36</v>
@@ -2706,7 +2703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="118.55" customHeight="1">
+    <row r="12" ht="365.55" customHeight="1">
       <c r="A12" s="30">
         <v>8</v>
       </c>
@@ -2723,10 +2720,10 @@
         <v>39</v>
       </c>
       <c r="F12" s="33">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="G12" s="34">
-        <v>45013.490972222222</v>
+        <v>1680079558</v>
       </c>
       <c r="H12" t="s" s="35">
         <v>40</v>
@@ -2750,7 +2747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="118.55" customHeight="1">
+    <row r="13" ht="365.55" customHeight="1">
       <c r="A13" s="30">
         <v>9</v>
       </c>
@@ -2767,10 +2764,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="41">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="G13" s="42">
-        <v>45013.491666666669</v>
+        <v>1680081362</v>
       </c>
       <c r="H13" t="s" s="43">
         <v>44</v>
@@ -2794,7 +2791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" ht="92.55" customHeight="1">
+    <row r="14" ht="261.55" customHeight="1">
       <c r="A14" s="30">
         <v>29</v>
       </c>
@@ -2832,7 +2829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="105.55" customHeight="1">
+    <row r="15" ht="261.55" customHeight="1">
       <c r="A15" s="30">
         <v>37</v>
       </c>
@@ -2886,7 +2883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="43" customHeight="1">
+    <row r="16" ht="92.55" customHeight="1">
       <c r="A16" s="30">
         <v>45</v>
       </c>
@@ -2930,7 +2927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="105.55" customHeight="1">
+    <row r="17" ht="300.55" customHeight="1">
       <c r="A17" s="30">
         <v>63</v>
       </c>
@@ -2968,7 +2965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="105.55" customHeight="1">
+    <row r="18" ht="300.55" customHeight="1">
       <c r="A18" s="30">
         <v>64</v>
       </c>
@@ -2987,7 +2984,7 @@
       <c r="F18" s="33">
         <v>45013</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="50">
         <v>45013.49375</v>
       </c>
       <c r="H18" t="s" s="35">
@@ -3022,7 +3019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" ht="144.55" customHeight="1">
+    <row r="19" ht="300.55" customHeight="1">
       <c r="A19" s="30">
         <v>65</v>
       </c>
@@ -3041,7 +3038,7 @@
       <c r="F19" s="33">
         <v>45013</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="50">
         <v>45013.495138888888</v>
       </c>
       <c r="H19" t="s" s="35">
@@ -3076,7 +3073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="131.55" customHeight="1">
+    <row r="20" ht="300.55" customHeight="1">
       <c r="A20" s="30">
         <v>66</v>
       </c>
@@ -3095,7 +3092,7 @@
       <c r="F20" s="33">
         <v>45013</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="50">
         <v>45013.495833333334</v>
       </c>
       <c r="H20" t="s" s="35">
@@ -3130,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="118.55" customHeight="1">
+    <row r="21" ht="300.55" customHeight="1">
       <c r="A21" s="30">
         <v>67</v>
       </c>
@@ -3149,7 +3146,7 @@
       <c r="F21" s="33">
         <v>45013</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="50">
         <v>45013.495833333334</v>
       </c>
       <c r="H21" t="s" s="35">
@@ -3184,7 +3181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="105.55" customHeight="1">
+    <row r="22" ht="313.55" customHeight="1">
       <c r="A22" s="30">
         <v>68</v>
       </c>
@@ -3203,7 +3200,7 @@
       <c r="F22" s="33">
         <v>45013</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="50">
         <v>45013.496527777781</v>
       </c>
       <c r="H22" t="s" s="35">
@@ -3238,7 +3235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="157.55" customHeight="1">
+    <row r="23" ht="300.55" customHeight="1">
       <c r="A23" s="30">
         <v>69</v>
       </c>
@@ -3257,7 +3254,7 @@
       <c r="F23" s="33">
         <v>45013</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="50">
         <v>45013.497222222220</v>
       </c>
       <c r="H23" t="s" s="35">
@@ -3292,7 +3289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="131.55" customHeight="1">
+    <row r="24" ht="300.55" customHeight="1">
       <c r="A24" s="30">
         <v>70</v>
       </c>
@@ -3311,7 +3308,7 @@
       <c r="F24" s="33">
         <v>45013</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="50">
         <v>45013.497222222220</v>
       </c>
       <c r="H24" t="s" s="35">
@@ -3346,7 +3343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" ht="131.55" customHeight="1">
+    <row r="25" ht="300.55" customHeight="1">
       <c r="A25" s="30">
         <v>71</v>
       </c>
@@ -3365,7 +3362,7 @@
       <c r="F25" s="33">
         <v>45013</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="51">
         <v>45013.497916666667</v>
       </c>
       <c r="H25" t="s" s="35">
@@ -3400,7 +3397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="183.55" customHeight="1">
+    <row r="26" ht="300.55" customHeight="1">
       <c r="A26" s="30">
         <v>72</v>
       </c>
@@ -3419,7 +3416,7 @@
       <c r="F26" s="41">
         <v>45013</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="50">
         <v>45013.498611111114</v>
       </c>
       <c r="H26" t="s" s="43">
@@ -3454,7 +3451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" ht="105.55" customHeight="1">
+    <row r="27" ht="313.55" customHeight="1">
       <c r="A27" s="30">
         <v>73</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="45"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
       <c r="J27" t="s" s="36">
@@ -3492,7 +3489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="105.05" customHeight="1">
+    <row r="28" ht="313.05" customHeight="1">
       <c r="A28" s="52">
         <v>74</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>123</v>
       </c>
       <c r="F28" s="41"/>
-      <c r="G28" s="55"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" t="s" s="48">
@@ -3518,15 +3515,15 @@
       <c r="K28" t="s" s="48">
         <v>124</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="56"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="55"/>
       <c r="R28" s="48"/>
-      <c r="S28" s="58"/>
-      <c r="T28" t="s" s="59">
+      <c r="S28" s="57"/>
+      <c r="T28" t="s" s="58">
         <v>50</v>
       </c>
     </row>
@@ -3536,21 +3533,21 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="61"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="60"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" s="3"/>
@@ -22156,123 +22153,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="65" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="65" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="65" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="65" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="65" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="65" customWidth="1"/>
+    <col min="1" max="1" width="16" style="64" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="64" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="64" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="64" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="64" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="66">
+      <c r="A1" t="s" s="65">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="67">
+      <c r="B1" t="s" s="66">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="67">
+      <c r="C1" t="s" s="66">
         <v>125</v>
       </c>
-      <c r="D1" t="s" s="68">
+      <c r="D1" t="s" s="67">
         <v>126</v>
       </c>
-      <c r="E1" s="69"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="70">
+      <c r="A2" t="s" s="69">
         <v>127</v>
       </c>
-      <c r="B2" t="s" s="71">
+      <c r="B2" t="s" s="70">
         <v>128</v>
       </c>
-      <c r="C2" t="s" s="72">
+      <c r="C2" t="s" s="71">
         <v>129</v>
       </c>
-      <c r="D2" t="s" s="73">
+      <c r="D2" t="s" s="72">
         <v>130</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="74">
+      <c r="A3" t="s" s="73">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="75">
+      <c r="B3" t="s" s="74">
         <v>128</v>
       </c>
-      <c r="C3" t="s" s="76">
+      <c r="C3" t="s" s="75">
         <v>131</v>
       </c>
-      <c r="D3" t="s" s="77">
+      <c r="D3" t="s" s="76">
         <v>132</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="74">
+      <c r="A4" t="s" s="73">
         <v>133</v>
       </c>
-      <c r="B4" t="s" s="75">
+      <c r="B4" t="s" s="74">
         <v>128</v>
       </c>
-      <c r="C4" t="s" s="76">
+      <c r="C4" t="s" s="75">
         <v>134</v>
       </c>
-      <c r="D4" t="s" s="78">
+      <c r="D4" t="s" s="77">
         <v>135</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="74">
+      <c r="A5" t="s" s="73">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="75">
+      <c r="B5" t="s" s="74">
         <v>128</v>
       </c>
-      <c r="C5" t="s" s="76">
+      <c r="C5" t="s" s="75">
         <v>137</v>
       </c>
-      <c r="D5" t="s" s="77">
+      <c r="D5" t="s" s="76">
         <v>138</v>
       </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="74">
+      <c r="A6" t="s" s="73">
         <v>139</v>
       </c>
-      <c r="B6" t="s" s="75">
+      <c r="B6" t="s" s="74">
         <v>128</v>
       </c>
-      <c r="C6" t="s" s="76">
+      <c r="C6" t="s" s="75">
         <v>140</v>
       </c>
-      <c r="D6" t="s" s="78">
+      <c r="D6" t="s" s="77">
         <v>141</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="79">
+      <c r="A7" t="s" s="78">
         <v>142</v>
       </c>
-      <c r="B7" t="s" s="80">
+      <c r="B7" t="s" s="79">
         <v>128</v>
       </c>
-      <c r="C7" t="s" s="81">
+      <c r="C7" t="s" s="80">
         <v>143</v>
       </c>
-      <c r="D7" t="s" s="78">
+      <c r="D7" t="s" s="77">
         <v>144</v>
       </c>
-      <c r="E7" s="69"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -149,10 +149,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>d06de30760be9db9</t>
+    <t>9901929bf6973b8e</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.a56c90b51a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.23aa9a5573^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -163,10 +163,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>6e6b2c2feffdb219</t>
+    <t>306967711b387a4f</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.456cea59c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.1c315e9227^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -177,10 +177,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>c23fe795b89460d8</t>
+    <t>46b719a207b578f5</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.2e7d61172b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.eb862203ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -2676,10 +2676,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="33">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="G11" s="34">
-        <v>1680078995</v>
+        <v>1681304640</v>
       </c>
       <c r="H11" t="s" s="35">
         <v>36</v>
@@ -2720,10 +2720,10 @@
         <v>39</v>
       </c>
       <c r="F12" s="33">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="G12" s="34">
-        <v>1680079558</v>
+        <v>1681304842</v>
       </c>
       <c r="H12" t="s" s="35">
         <v>40</v>
@@ -2764,10 +2764,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="41">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="G13" s="42">
-        <v>1680081362</v>
+        <v>1681304942</v>
       </c>
       <c r="H13" t="s" s="43">
         <v>44</v>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -177,10 +177,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>46b719a207b578f5</t>
+    <t>2378fe2e98cebb0e</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.eb862203ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.140.4.4.ac31791c050ccc1bddbbe25b46d3b88bfef981b9d62153a7ab40b3f1f4a6eef5.d43c8e4a0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -615,7 +615,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -645,6 +645,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
     </font>
     <font>
       <u val="single"/>
@@ -992,7 +997,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1122,16 +1127,19 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1140,13 +1148,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="21" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="21" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2851,29 +2859,29 @@
       <c r="G15" t="s" s="35">
         <v>53</v>
       </c>
-      <c r="H15" t="s" s="43">
+      <c r="H15" t="s" s="47">
         <v>54</v>
       </c>
-      <c r="I15" t="s" s="43">
+      <c r="I15" t="s" s="47">
         <v>55</v>
       </c>
       <c r="J15" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="K15" s="47"/>
+      <c r="K15" s="48"/>
       <c r="L15" t="s" s="36">
         <v>32</v>
       </c>
       <c r="M15" t="s" s="36">
         <v>48</v>
       </c>
-      <c r="N15" t="s" s="48">
+      <c r="N15" t="s" s="49">
         <v>56</v>
       </c>
       <c r="O15" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="P15" t="s" s="49">
+      <c r="P15" t="s" s="50">
         <v>57</v>
       </c>
       <c r="Q15" s="38"/>
@@ -2913,7 +2921,7 @@
       <c r="K16" s="37"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="47"/>
+      <c r="N16" s="48"/>
       <c r="O16" s="38"/>
       <c r="P16" t="s" s="46">
         <v>61</v>
@@ -2957,7 +2965,7 @@
       <c r="M17" s="38"/>
       <c r="N17" s="37"/>
       <c r="O17" s="38"/>
-      <c r="P17" s="47"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="36"/>
       <c r="S17" s="39"/>
@@ -2984,7 +2992,7 @@
       <c r="F18" s="33">
         <v>45013</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="51">
         <v>45013.49375</v>
       </c>
       <c r="H18" t="s" s="35">
@@ -3038,7 +3046,7 @@
       <c r="F19" s="33">
         <v>45013</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="51">
         <v>45013.495138888888</v>
       </c>
       <c r="H19" t="s" s="35">
@@ -3092,7 +3100,7 @@
       <c r="F20" s="33">
         <v>45013</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="51">
         <v>45013.495833333334</v>
       </c>
       <c r="H20" t="s" s="35">
@@ -3146,7 +3154,7 @@
       <c r="F21" s="33">
         <v>45013</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="51">
         <v>45013.495833333334</v>
       </c>
       <c r="H21" t="s" s="35">
@@ -3200,7 +3208,7 @@
       <c r="F22" s="33">
         <v>45013</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="51">
         <v>45013.496527777781</v>
       </c>
       <c r="H22" t="s" s="35">
@@ -3254,7 +3262,7 @@
       <c r="F23" s="33">
         <v>45013</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="51">
         <v>45013.497222222220</v>
       </c>
       <c r="H23" t="s" s="35">
@@ -3308,7 +3316,7 @@
       <c r="F24" s="33">
         <v>45013</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="51">
         <v>45013.497222222220</v>
       </c>
       <c r="H24" t="s" s="35">
@@ -3362,7 +3370,7 @@
       <c r="F25" s="33">
         <v>45013</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="52">
         <v>45013.497916666667</v>
       </c>
       <c r="H25" t="s" s="35">
@@ -3416,13 +3424,13 @@
       <c r="F26" s="41">
         <v>45013</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="51">
         <v>45013.498611111114</v>
       </c>
-      <c r="H26" t="s" s="43">
+      <c r="H26" t="s" s="47">
         <v>115</v>
       </c>
-      <c r="I26" t="s" s="43">
+      <c r="I26" t="s" s="47">
         <v>116</v>
       </c>
       <c r="J26" t="s" s="36">
@@ -3490,40 +3498,40 @@
       </c>
     </row>
     <row r="28" ht="313.05" customHeight="1">
-      <c r="A28" s="52">
+      <c r="A28" s="53">
         <v>74</v>
       </c>
-      <c r="B28" t="s" s="53">
+      <c r="B28" t="s" s="54">
         <v>26</v>
       </c>
-      <c r="C28" t="s" s="53">
+      <c r="C28" t="s" s="54">
         <v>27</v>
       </c>
-      <c r="D28" t="s" s="53">
+      <c r="D28" t="s" s="54">
         <v>122</v>
       </c>
-      <c r="E28" t="s" s="54">
+      <c r="E28" t="s" s="55">
         <v>123</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="42"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
-      <c r="J28" t="s" s="48">
+      <c r="J28" t="s" s="49">
         <v>48</v>
       </c>
-      <c r="K28" t="s" s="48">
+      <c r="K28" t="s" s="49">
         <v>124</v>
       </c>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="57"/>
-      <c r="T28" t="s" s="58">
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="58"/>
+      <c r="T28" t="s" s="59">
         <v>50</v>
       </c>
     </row>
@@ -3533,21 +3541,21 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" s="3"/>
@@ -22153,123 +22161,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="64" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="64" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="64" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="64" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="64" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="64" customWidth="1"/>
+    <col min="1" max="1" width="16" style="65" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="65" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="65" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="65" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="65" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="65">
+      <c r="A1" t="s" s="66">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="66">
+      <c r="B1" t="s" s="67">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="66">
+      <c r="C1" t="s" s="67">
         <v>125</v>
       </c>
-      <c r="D1" t="s" s="67">
+      <c r="D1" t="s" s="68">
         <v>126</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="69">
+      <c r="A2" t="s" s="70">
         <v>127</v>
       </c>
-      <c r="B2" t="s" s="70">
+      <c r="B2" t="s" s="71">
         <v>128</v>
       </c>
-      <c r="C2" t="s" s="71">
+      <c r="C2" t="s" s="72">
         <v>129</v>
       </c>
-      <c r="D2" t="s" s="72">
+      <c r="D2" t="s" s="73">
         <v>130</v>
       </c>
-      <c r="E2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="73">
+      <c r="A3" t="s" s="74">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="74">
+      <c r="B3" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C3" t="s" s="75">
+      <c r="C3" t="s" s="76">
         <v>131</v>
       </c>
-      <c r="D3" t="s" s="76">
+      <c r="D3" t="s" s="77">
         <v>132</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="73">
+      <c r="A4" t="s" s="74">
         <v>133</v>
       </c>
-      <c r="B4" t="s" s="74">
+      <c r="B4" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C4" t="s" s="75">
+      <c r="C4" t="s" s="76">
         <v>134</v>
       </c>
-      <c r="D4" t="s" s="77">
+      <c r="D4" t="s" s="78">
         <v>135</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="73">
+      <c r="A5" t="s" s="74">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="74">
+      <c r="B5" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C5" t="s" s="75">
+      <c r="C5" t="s" s="76">
         <v>137</v>
       </c>
-      <c r="D5" t="s" s="76">
+      <c r="D5" t="s" s="77">
         <v>138</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="73">
+      <c r="A6" t="s" s="74">
         <v>139</v>
       </c>
-      <c r="B6" t="s" s="74">
+      <c r="B6" t="s" s="75">
         <v>128</v>
       </c>
-      <c r="C6" t="s" s="75">
+      <c r="C6" t="s" s="76">
         <v>140</v>
       </c>
-      <c r="D6" t="s" s="77">
+      <c r="D6" t="s" s="78">
         <v>141</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="78">
+      <c r="A7" t="s" s="79">
         <v>142</v>
       </c>
-      <c r="B7" t="s" s="79">
+      <c r="B7" t="s" s="80">
         <v>128</v>
       </c>
-      <c r="C7" t="s" s="80">
+      <c r="C7" t="s" s="81">
         <v>143</v>
       </c>
-      <c r="D7" t="s" s="77">
+      <c r="D7" t="s" s="78">
         <v>144</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -315,7 +315,7 @@
     <t>JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)</t>
   </si>
   <si>
-    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto</t>
+    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto e viene aggiunto in una coda di errori di validazione dalla quale è possibile dedurre il tipo di errore e apportare le dovute correzioni, al termine delle quali il documento viene nuovamente inviato per la validazione.</t>
   </si>
   <si>
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
@@ -328,7 +328,7 @@
     <t>11:03:00</t>
   </si>
   <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto</t>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale l’operatore può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -439,7 +439,8 @@
     <t>Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: G]</t>
   </si>
   <si>
-    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: G]</t>
+    <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: G]. 
+Il referto viene aggiunto in una coda di errori dalla quale è possibile apportare le dovute modifiche prima di effettuare nuovamente l’invio per la validazione.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
@@ -2891,7 +2892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="92.55" customHeight="1">
+    <row r="16" ht="108" customHeight="1">
       <c r="A16" s="30">
         <v>45</v>
       </c>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-LDO/v.2.0/report-checklist.xlsx
@@ -379,7 +379,8 @@
     <t>Errore semantico. [ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[W003|  Sezione Condizioni del paziente e diagnosi alla dimissione: La sezione PUO' contenere l'elemento 'entry' ]</t>
   </si>
   <si>
-    <t>ALERT: L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem=‘2.16.840.1.113883.5.25']</t>
+    <t>ALERT: L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem=‘2.16.840.1.113883.5.25’]
+Il confidentialityCode viene scelto, all’interno della maschera di inserimento, tra un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
@@ -440,7 +441,7 @@
   </si>
   <si>
     <t>ALERT: Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: G]. 
-Il referto viene aggiunto in una coda di errori dalla quale è possibile apportare le dovute modifiche prima di effettuare nuovamente l’invio per la validazione.</t>
+La scelta del valore avviene da un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
